--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254519.0290689368</v>
+        <v>252631.4475525352</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>202.2295900016015</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>46.00903718674009</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.528783976971521</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>19.330028281558</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4473537520265609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.35455705266811</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>126.7632886126198</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>184.4204837359412</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>106.7209824064463</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>58.61001934679004</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>24.29718497126813</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,13 +1582,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>30.15451601838674</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>104.0920842718083</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>94.16481274941252</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>66.7769248528634</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>29.18937547121062</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>105.6571329437492</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>154.96246990914</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>66.90445977359147</v>
       </c>
       <c r="W25" t="n">
-        <v>231.6222392210687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>95.02525064967642</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211447</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>42.20569823125597</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
-        <v>110.8099768231988</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463113</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>978.1437682647402</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>978.1437682647402</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>978.1437682647402</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>592.3555156664959</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>585.4100149172924</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.743608328862</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="3">
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W4" t="n">
-        <v>224.4233909876365</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781315</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>804.6781795198735</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>393.692274730266</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.350118890499</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2335.588333528591</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2335.588333528591</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.819678258477</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>487.2784796319623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>487.2784796319623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X10" t="n">
-        <v>668.9269444622021</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y10" t="n">
-        <v>668.9269444622021</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1474.373659475813</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1274.453649391366</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1050.668234180871</v>
       </c>
       <c r="U13" t="n">
-        <v>933.6766347355065</v>
+        <v>761.5395953944297</v>
       </c>
       <c r="V13" t="n">
-        <v>933.6766347355065</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W13" t="n">
-        <v>644.2594646985458</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>416.2699138005285</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2699138005285</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1193.852741006981</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>1193.852741006981</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>1193.852741006981</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.852741006981</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>965.8631901089641</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.070610965434</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5522,43 +5522,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1320.389727874411</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1320.389727874411</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1031.261089087969</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>1031.261089087969</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>741.8439190510085</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X19" t="n">
-        <v>741.8439190510085</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,22 +5735,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>203.9414681711436</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>203.9414681711436</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227915</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>718.3993657398219</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>428.9821957028613</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X22" t="n">
-        <v>428.9821957028613</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>385.5899330013833</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,49 +5972,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975556</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.78763177146</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>975.825773972401</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>747.8362230743836</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471186</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383433</v>
       </c>
       <c r="V28" t="n">
-        <v>1402.931168891562</v>
+        <v>675.0071030383432</v>
       </c>
       <c r="W28" t="n">
-        <v>1113.513998854602</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,16 +6537,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
         <v>1302.911127126629</v>
@@ -6558,10 +6558,10 @@
         <v>1912.313820009359</v>
       </c>
       <c r="P30" t="n">
-        <v>2432.614441745106</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248423</v>
+        <v>439.5324299542193</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783063</v>
+        <v>326.3571123076833</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473417</v>
+        <v>232.0013381767184</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463195</v>
+        <v>139.8491098756959</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933505</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1824.196793537693</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1824.196793537693</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.829020032622</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1391.905397108106</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352517</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358702</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.988692873711</v>
+        <v>565.4200295030882</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506723</v>
@@ -6847,13 +6847,13 @@
         <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.115218311523</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975556</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,19 +7257,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079765</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229673</v>
@@ -7321,19 +7321,19 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,22 +7421,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2227.840212610278</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>2432.862693392488</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1912.313820009359</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2432.614441745106</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>253.7371603504738</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>8.406710013102099</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>230.7151863772036</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M21" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>8.406710013101815</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>43.65987261462539</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10431,25 +10431,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>199.7396287231157</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>20.63789864135487</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>104.874910276575</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.88676507992608</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.8749102765746</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>85.66716743252466</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>256.0828363801906</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>117.455476786581</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>131.1438851307398</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>189.3952778808842</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>42.95834007446317</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>97.17517341468803</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>185.2331835502365</v>
       </c>
       <c r="W25" t="n">
-        <v>54.90075911552233</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>157.1123926741516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>158.8051956154463</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311814</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571476</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>31.90757653184722</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>312823.2477901669</v>
@@ -26332,7 +26332,7 @@
         <v>312823.2477901669</v>
       </c>
       <c r="I2" t="n">
-        <v>312823.2477901669</v>
+        <v>312823.247790167</v>
       </c>
       <c r="J2" t="n">
         <v>312823.2477901669</v>
@@ -26341,13 +26341,13 @@
         <v>325457.7098762158</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="M2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="N2" t="n">
         <v>328416.7079457135</v>
-      </c>
-      <c r="N2" t="n">
-        <v>328416.7079457137</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457134</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086673</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106731</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819121</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510043.1171187651</v>
+        <v>-510043.117118765</v>
       </c>
       <c r="C6" t="n">
         <v>79924.76209577941</v>
       </c>
       <c r="D6" t="n">
-        <v>79924.76209577931</v>
+        <v>79924.76209577953</v>
       </c>
       <c r="E6" t="n">
-        <v>-326498.7222223165</v>
+        <v>-326596.1813482887</v>
       </c>
       <c r="F6" t="n">
-        <v>198661.3142545796</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="G6" t="n">
-        <v>198661.3142545797</v>
+        <v>198563.8551286076</v>
       </c>
       <c r="H6" t="n">
-        <v>198661.3142545795</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="I6" t="n">
-        <v>198661.3142545796</v>
+        <v>198563.8551286075</v>
       </c>
       <c r="J6" t="n">
-        <v>22238.09506198656</v>
+        <v>22140.63593601459</v>
       </c>
       <c r="K6" t="n">
-        <v>144327.6659420799</v>
+        <v>144309.1722041456</v>
       </c>
       <c r="L6" t="n">
-        <v>175765.3004966303</v>
+        <v>175765.3004966301</v>
       </c>
       <c r="M6" t="n">
-        <v>51307.19206365988</v>
+        <v>51307.19206365947</v>
       </c>
       <c r="N6" t="n">
-        <v>186108.2072974971</v>
+        <v>186108.2072974969</v>
       </c>
       <c r="O6" t="n">
         <v>186108.2072974968</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964069</v>
@@ -26741,10 +26741,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108342</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>211.5545800191935</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>323.7220634917289</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>224.1808714120656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>329.910940435855</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>385.790584904027</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.0794055939011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>125.3743547112082</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>229.3636862848538</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>109.7273379512115</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>167.0996360422471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>49.80904827649567</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>586.9317337484866</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>290.7704122542102</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35747,7 +35747,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
@@ -35963,10 +35963,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>479.9728913332278</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M21" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36361,7 +36361,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>469.4364773639908</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>96.41974279817592</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36677,13 +36677,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>376.8544460126382</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043197</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37151,25 +37151,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>532.9342021211286</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37385,13 +37385,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>331.0622756918211</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,7 +37400,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>354.1326152325992</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q42" t="n">
-        <v>181.8997978650002</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.8879430616487</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
